--- a/ToDo/Калькулятор.xlsx
+++ b/ToDo/Калькулятор.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="136">
   <si>
     <t>Credit365</t>
   </si>
@@ -413,6 +413,45 @@
   </si>
   <si>
     <t>Перевірити коректність нарахування відсотків для 2-ї групи</t>
+  </si>
+  <si>
+    <t>https://finme.com.ua/</t>
+  </si>
+  <si>
+    <t>https://cashme.ua/</t>
+  </si>
+  <si>
+    <t>https://prostozaim.com.ua/</t>
+  </si>
+  <si>
+    <t>Компаньон Финанс</t>
+  </si>
+  <si>
+    <t>ПростоЗайм</t>
+  </si>
+  <si>
+    <t>спецумови</t>
+  </si>
+  <si>
+    <t>CashMe</t>
+  </si>
+  <si>
+    <t>cashme.png</t>
+  </si>
+  <si>
+    <t>FinMe</t>
+  </si>
+  <si>
+    <t>не онлайн</t>
+  </si>
+  <si>
+    <t>kf.png</t>
+  </si>
+  <si>
+    <t>Примітка</t>
+  </si>
+  <si>
+    <t>finme.jpg</t>
   </si>
 </sst>
 </file>
@@ -420,10 +459,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_₴_-;\-* #,##0.00_₴_-;_-* &quot;-&quot;??_₴_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.000%"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.0000%"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_₴_-;\-* #,##0.00_₴_-;_-* &quot;-&quot;??_₴_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.000%"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -522,7 +561,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -580,17 +619,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -617,7 +667,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -636,7 +686,7 @@
     <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -676,20 +726,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -701,9 +754,7 @@
     <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Гиперссылка" xfId="3" builtinId="8"/>
@@ -1001,10 +1052,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R50"/>
+  <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1017,60 +1069,64 @@
     <col min="16" max="16" width="19.5703125" customWidth="1"/>
     <col min="17" max="17" width="8.28515625" customWidth="1"/>
     <col min="18" max="18" width="9.5703125" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" customHeight="1">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:19" ht="15" customHeight="1">
+      <c r="A1" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="47" t="s">
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="47" t="s">
+      <c r="N1" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="47" t="s">
+      <c r="O1" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="P1" s="47" t="s">
+      <c r="P1" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="Q1" s="47" t="s">
+      <c r="Q1" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="45" t="s">
+      <c r="R1" s="46" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
+      <c r="S1" s="46" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
       <c r="F2" s="17" t="s">
         <v>59</v>
       </c>
@@ -1092,14 +1148,15 @@
       <c r="L2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="46"/>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1153,7 +1210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -1176,7 +1233,7 @@
         <v>3000</v>
       </c>
       <c r="H4" s="8">
-        <v>1.4E-2</v>
+        <v>9.9000000000000008E-3</v>
       </c>
       <c r="I4" s="27">
         <v>0</v>
@@ -1207,7 +1264,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1261,7 +1318,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1315,7 +1372,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19">
       <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
@@ -1369,7 +1426,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
@@ -1423,7 +1480,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
@@ -1477,7 +1534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
@@ -1531,7 +1588,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
@@ -1585,7 +1642,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19">
       <c r="A12" s="5" t="s">
         <v>23</v>
       </c>
@@ -1639,7 +1696,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19">
       <c r="A13" s="5" t="s">
         <v>25</v>
       </c>
@@ -1693,7 +1750,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19">
       <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
@@ -1747,7 +1804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19">
       <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
@@ -1801,7 +1858,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19">
       <c r="A16" s="5" t="s">
         <v>32</v>
       </c>
@@ -1855,7 +1912,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:19">
       <c r="A17" s="5" t="s">
         <v>33</v>
       </c>
@@ -1909,7 +1966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:19">
       <c r="A18" s="5" t="s">
         <v>35</v>
       </c>
@@ -1932,7 +1989,7 @@
         <v>10000</v>
       </c>
       <c r="H18" s="13">
-        <v>1.4999999999999999E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="I18" s="27">
         <v>0</v>
@@ -1944,7 +2001,7 @@
         <v>10000</v>
       </c>
       <c r="L18" s="41">
-        <v>1.4999999999999999E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="M18" s="6">
         <v>0</v>
@@ -1963,7 +2020,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:19">
       <c r="A19" s="5" t="s">
         <v>37</v>
       </c>
@@ -2017,7 +2074,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:19">
       <c r="A20" s="5" t="s">
         <v>45</v>
       </c>
@@ -2071,7 +2128,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:19">
       <c r="A21" s="5" t="s">
         <v>46</v>
       </c>
@@ -2125,7 +2182,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:19">
       <c r="A22" s="5" t="s">
         <v>42</v>
       </c>
@@ -2178,8 +2235,11 @@
       <c r="R22" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="S22" s="53" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="5" t="s">
         <v>44</v>
       </c>
@@ -2232,8 +2292,11 @@
       <c r="R23" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="S23" s="53" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="5" t="s">
         <v>115</v>
       </c>
@@ -2282,73 +2345,185 @@
       <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
       <c r="R24" s="10"/>
-    </row>
-    <row r="25" spans="1:18">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
+      <c r="S24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25" s="5">
+        <v>23</v>
+      </c>
       <c r="C25" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="10"/>
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
+      <c r="E25" s="6">
+        <v>500</v>
+      </c>
+      <c r="F25" s="6">
+        <v>15</v>
+      </c>
+      <c r="G25" s="4">
+        <v>4000</v>
+      </c>
+      <c r="H25" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="I25" s="27">
+        <v>0</v>
+      </c>
+      <c r="J25" s="6">
+        <v>15</v>
+      </c>
+      <c r="K25" s="6">
+        <v>4000</v>
+      </c>
+      <c r="L25" s="8">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="M25" s="6">
+        <v>0</v>
+      </c>
+      <c r="N25" s="27">
+        <v>0</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P25" s="10" t="s">
+        <v>133</v>
+      </c>
       <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-    </row>
-    <row r="26" spans="1:18">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="10"/>
+      <c r="R25" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" s="5">
+        <v>24</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" s="5">
+        <v>3</v>
+      </c>
+      <c r="E26" s="6">
+        <v>200</v>
+      </c>
+      <c r="F26" s="6">
+        <v>15</v>
+      </c>
+      <c r="G26" s="4">
+        <v>3000</v>
+      </c>
+      <c r="H26" s="8">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I26" s="27">
+        <v>0</v>
+      </c>
+      <c r="J26" s="6">
+        <v>15</v>
+      </c>
+      <c r="K26" s="6">
+        <v>3000</v>
+      </c>
+      <c r="L26" s="8">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M26" s="6">
+        <v>0</v>
+      </c>
+      <c r="N26" s="27">
+        <v>0</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P26" s="10" t="s">
+        <v>135</v>
+      </c>
       <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-    </row>
-    <row r="27" spans="1:18">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="10"/>
+      <c r="R26" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="S26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B27" s="5">
+        <v>25</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="5">
+        <v>7</v>
+      </c>
+      <c r="E27" s="6">
+        <v>500</v>
+      </c>
+      <c r="F27" s="6">
+        <v>30</v>
+      </c>
+      <c r="G27" s="4">
+        <v>2000</v>
+      </c>
+      <c r="H27" s="8">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="I27" s="27">
+        <v>0</v>
+      </c>
+      <c r="J27" s="6">
+        <v>30</v>
+      </c>
+      <c r="K27" s="6">
+        <v>9000</v>
+      </c>
+      <c r="L27" s="8">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="M27" s="6">
+        <v>0</v>
+      </c>
+      <c r="N27" s="27">
+        <v>0</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P27" s="10" t="s">
+        <v>130</v>
+      </c>
       <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
+      <c r="R27" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" s="5">
+        <v>26</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>125</v>
+      </c>
       <c r="D28" s="5"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -2363,9 +2538,14 @@
       <c r="O28" s="5"/>
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="R28" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="S28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -2385,7 +2565,7 @@
       <c r="Q29" s="10"/>
       <c r="R29" s="10"/>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:19">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -2405,7 +2585,7 @@
       <c r="Q30" s="10"/>
       <c r="R30" s="10"/>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:19">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -2425,7 +2605,7 @@
       <c r="Q31" s="10"/>
       <c r="R31" s="10"/>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:19">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -2806,7 +2986,8 @@
       <c r="R50" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="S1:S2"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="A1:A2"/>
@@ -2850,8 +3031,12 @@
     <hyperlink ref="C23" r:id="rId21"/>
     <hyperlink ref="C24" r:id="rId22"/>
     <hyperlink ref="C25" r:id="rId23"/>
+    <hyperlink ref="C26" r:id="rId24"/>
+    <hyperlink ref="C27" r:id="rId25"/>
+    <hyperlink ref="C28" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId27"/>
 </worksheet>
 </file>
 
@@ -2879,7 +3064,7 @@
         <v>54</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>46</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="2:10">
@@ -2887,7 +3072,7 @@
         <v>51</v>
       </c>
       <c r="C2" s="31">
-        <v>4150</v>
+        <v>200</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>86</v>
@@ -2901,9 +3086,9 @@
         <v>47</v>
       </c>
       <c r="C3" s="31">
-        <v>9</v>
-      </c>
-      <c r="I3" s="52">
+        <v>3</v>
+      </c>
+      <c r="I3" s="45">
         <v>1</v>
       </c>
       <c r="J3" t="s">
@@ -2926,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="39"/>
-      <c r="I4" s="52">
+      <c r="I4" s="45">
         <v>2</v>
       </c>
       <c r="J4" t="s">
@@ -2939,7 +3124,7 @@
       </c>
       <c r="C5" s="33">
         <f>VLOOKUP(C1,ТаблицяКомпанії2,8,0)</f>
-        <v>1.6E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E5" t="s">
         <v>63</v>
@@ -2950,7 +3135,7 @@
       </c>
       <c r="G5" s="39"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="52">
+      <c r="I5" s="45">
         <v>3</v>
       </c>
       <c r="J5" t="s">
@@ -2963,7 +3148,7 @@
       </c>
       <c r="C6" s="33">
         <f>VLOOKUP(C1,ТаблицяКомпанії2,12,0)</f>
-        <v>1.6E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E6" t="s">
         <v>69</v>
@@ -2974,7 +3159,7 @@
       </c>
       <c r="G6" s="39"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="52">
+      <c r="I6" s="45">
         <v>4</v>
       </c>
       <c r="J6" t="s">
@@ -2987,11 +3172,11 @@
       </c>
       <c r="C7" s="34">
         <f>VLOOKUP(C1,ТаблицяКомпанії2,5,0)</f>
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G7" s="39"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="52"/>
+      <c r="I7" s="45"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" t="s">
@@ -2999,7 +3184,7 @@
       </c>
       <c r="C8" s="34">
         <f>VLOOKUP(C1,ТаблицяКомпанії2,4,0)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>2</v>
@@ -3013,14 +3198,14 @@
       </c>
       <c r="C9" s="34">
         <f>VLOOKUP(C1,ТаблицяКомпанії2,7,0)</f>
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="E9" t="s">
         <v>53</v>
       </c>
       <c r="F9">
         <f>Сума*(Термін+КоректСreditUp)*(Відсоток1-КоректCredit365)*(100%-Знижка)</f>
-        <v>298.8</v>
+        <v>15</v>
       </c>
       <c r="G9" s="39"/>
       <c r="H9" s="1"/>
@@ -3031,14 +3216,14 @@
       </c>
       <c r="C10" s="34">
         <f>VLOOKUP(C1,ТаблицяКомпанії2,11,0)</f>
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="E10" t="s">
         <v>50</v>
       </c>
       <c r="F10">
         <f>VLOOKUP(Округлення,ТаблицяОкруглення,2,0)</f>
-        <v>4448.8</v>
+        <v>215</v>
       </c>
       <c r="G10" s="39" t="str">
         <f>IF(OR(Термін&lt;МінДнів,Термін&gt;МаксДнів1,Сума&lt;МінСума,Сума&gt;МаксСума1),"недоступно","")</f>
@@ -3052,7 +3237,7 @@
       </c>
       <c r="C11" s="34">
         <f>VLOOKUP(C1,ТаблицяКомпанії2,6,0)</f>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G11" s="39"/>
       <c r="H11" s="1"/>
@@ -3063,7 +3248,7 @@
       </c>
       <c r="C12" s="34">
         <f>VLOOKUP(C1,ТаблицяКомпанії2,10,0)</f>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>3</v>
@@ -3084,7 +3269,7 @@
       </c>
       <c r="F13">
         <f>Сума*(Термін+КоректСreditUp)*(ВідсотокN-КоректCredit365)</f>
-        <v>597.6</v>
+        <v>15</v>
       </c>
       <c r="G13" s="39"/>
     </row>
@@ -3101,7 +3286,7 @@
       </c>
       <c r="F14" s="14">
         <f>VLOOKUP(Округлення,ТаблицяОкруглення,3,0)</f>
-        <v>4747.6000000000004</v>
+        <v>215</v>
       </c>
       <c r="G14" s="40" t="str">
         <f>IF(OR(Термін&lt;МінДнів,Термін&gt;МаксДнівN,Сума&lt;МінСума,Сума&gt;МаксСумаN),"недоступно","")</f>
@@ -3114,7 +3299,7 @@
       </c>
       <c r="C15" s="37">
         <f>VLOOKUP(C1,ТаблицяКомпанії2,9,0)</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="15.75" thickBot="1">
@@ -3142,7 +3327,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3171,11 +3356,11 @@
       </c>
       <c r="B2" s="26">
         <f>ROUND(Сума+ВсьогоКомісія+ВсьогоВідсотки1,0)</f>
-        <v>4449</v>
+        <v>215</v>
       </c>
       <c r="C2">
         <f>ROUND(Сума+ВсьогоКомісія+ВсьогоВідсоткиN,0)</f>
-        <v>4748</v>
+        <v>215</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -3190,11 +3375,11 @@
       </c>
       <c r="B3" s="26">
         <f>ROUNDUP(Сума+ВсьогоКомісія+ВсьогоВідсотки1,0)</f>
-        <v>4449</v>
+        <v>215</v>
       </c>
       <c r="C3">
         <f>ROUNDUP(Сума+ВсьогоКомісія+ВсьогоВідсоткиN,0)</f>
-        <v>4748</v>
+        <v>215</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -3209,11 +3394,11 @@
       </c>
       <c r="B4" s="26">
         <f>ROUNDDOWN(Сума+ВсьогоКомісія+ВсьогоВідсотки1,0)</f>
-        <v>4448</v>
+        <v>215</v>
       </c>
       <c r="C4">
         <f>ROUNDDOWN(Сума+ВсьогоКомісія+ВсьогоВідсоткиN,0)</f>
-        <v>4747</v>
+        <v>215</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -3228,11 +3413,11 @@
       </c>
       <c r="B5" s="1">
         <f>ROUND(Сума+ВсьогоКомісія+ВсьогоВідсотки1,2)</f>
-        <v>4448.8</v>
+        <v>215</v>
       </c>
       <c r="C5">
         <f>ROUND(Сума+ВсьогоКомісія+ВсьогоВідсоткиN,2)</f>
-        <v>4747.6000000000004</v>
+        <v>215</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -3247,11 +3432,11 @@
       </c>
       <c r="B6" s="25">
         <f>ROUND(Сума+ВсьогоКомісія+ВсьогоВідсотки1,1)</f>
-        <v>4448.8</v>
+        <v>215</v>
       </c>
       <c r="C6">
         <f>ROUND(Сума+ВсьогоКомісія+ВсьогоВідсоткиN,1)</f>
-        <v>4747.6000000000004</v>
+        <v>215</v>
       </c>
       <c r="D6">
         <v>4</v>
